--- a/magistracy/software-engeneering-methodology/Software_Development_Plan.xlsx
+++ b/magistracy/software-engeneering-methodology/Software_Development_Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\projects\edu\itmo\magistracy\software-engeneering-methodology\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0828878-4745-44A7-82FD-E2F391188A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFC8657A-0DBF-442A-90F9-D9C6E393FC47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{7D176322-67A7-4C2F-BC6C-DB6016FEB858}"/>
+    <workbookView xWindow="11976" yWindow="3600" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{7D176322-67A7-4C2F-BC6C-DB6016FEB858}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -400,8 +400,8 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -417,9 +417,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office 2013–2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -457,7 +457,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -563,7 +563,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -705,7 +705,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -727,7 +727,7 @@
     <col min="46" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="5" customFormat="1" ht="226.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" s="5" customFormat="1" ht="228" x14ac:dyDescent="0.3">
       <c r="A1" s="3"/>
       <c r="B1" s="11" t="s">
         <v>2</v>
